--- a/ERPU/ERPU_RFseq_mastermixcockatils.xlsx
+++ b/ERPU/ERPU_RFseq_mastermixcockatils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/skippers_carrol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/ERPU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4669899-E32C-2144-BBF6-54BB4188DFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC27858-8C7A-DB40-8DB9-88384B7DA1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="14020" windowWidth="27460" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="6400" windowWidth="27460" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -544,7 +544,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -572,7 +572,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -925,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,8 +946,8 @@
         <v>46</v>
       </c>
       <c r="E1" s="4">
-        <f xml:space="preserve"> 150*1.3</f>
-        <v>195</v>
+        <f xml:space="preserve"> 384*1.3</f>
+        <v>499.20000000000005</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -968,7 +967,7 @@
       </c>
       <c r="C3" s="21">
         <f>1.15*E1</f>
-        <v>224.24999999999997</v>
+        <v>574.08000000000004</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
@@ -983,7 +982,7 @@
       </c>
       <c r="C4" s="22">
         <f>0.6*E1</f>
-        <v>117</v>
+        <v>299.52000000000004</v>
       </c>
       <c r="D4" t="s">
         <v>45</v>
@@ -998,7 +997,7 @@
       </c>
       <c r="C5" s="22">
         <f>0.6 * E1</f>
-        <v>117</v>
+        <v>299.52000000000004</v>
       </c>
       <c r="D5" t="s">
         <v>45</v>
@@ -1013,7 +1012,7 @@
       </c>
       <c r="C6" s="22">
         <f>0.25*E1</f>
-        <v>48.75</v>
+        <v>124.80000000000001</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -1028,7 +1027,7 @@
       </c>
       <c r="C7" s="22">
         <f>0.12*E1</f>
-        <v>23.4</v>
+        <v>59.904000000000003</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
@@ -1043,7 +1042,7 @@
       </c>
       <c r="C8" s="23">
         <f>0.28*E1</f>
-        <v>54.600000000000009</v>
+        <v>139.77600000000004</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
@@ -1058,7 +1057,7 @@
       </c>
       <c r="C10" s="24">
         <f>SUM(C3:C9)</f>
-        <v>585</v>
+        <v>1497.6000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1067,7 +1066,7 @@
       </c>
       <c r="C11" s="24">
         <f>C10/12</f>
-        <v>48.75</v>
+        <v>124.80000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1098,7 +1097,7 @@
       </c>
       <c r="C15" s="22">
         <f>B15*E1</f>
-        <v>195</v>
+        <v>499.20000000000005</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
@@ -1113,7 +1112,7 @@
       </c>
       <c r="C16" s="22">
         <f>B16*E1</f>
-        <v>14.04</v>
+        <v>35.942399999999999</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
@@ -1128,7 +1127,7 @@
       </c>
       <c r="C17" s="22">
         <f>B17*E1</f>
-        <v>19.5</v>
+        <v>49.920000000000009</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
@@ -1143,9 +1142,9 @@
       </c>
       <c r="C18" s="22">
         <f>B18*E1</f>
-        <v>9.75</v>
-      </c>
-      <c r="D18" s="27" t="s">
+        <v>24.960000000000004</v>
+      </c>
+      <c r="D18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1158,9 +1157,9 @@
       </c>
       <c r="C19" s="22">
         <f>B19*E1</f>
-        <v>9.75</v>
-      </c>
-      <c r="D19" s="27" t="s">
+        <v>24.960000000000004</v>
+      </c>
+      <c r="D19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1173,9 +1172,9 @@
       </c>
       <c r="C20" s="23">
         <f>B20*E1</f>
-        <v>32.662500000000001</v>
-      </c>
-      <c r="D20" s="27" t="s">
+        <v>83.616000000000014</v>
+      </c>
+      <c r="D20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1188,7 +1187,7 @@
       </c>
       <c r="C22" s="24">
         <f>SUM(C15:C20)</f>
-        <v>280.70249999999999</v>
+        <v>718.59840000000008</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1197,7 +1196,7 @@
       </c>
       <c r="C23" s="24">
         <f>C22/12</f>
-        <v>23.391874999999999</v>
+        <v>59.883200000000009</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1243,7 +1242,7 @@
       </c>
       <c r="C29" s="22">
         <f>B29*E1</f>
-        <v>1885.65</v>
+        <v>4827.2640000000001</v>
       </c>
       <c r="D29" t="s">
         <v>45</v>
@@ -1258,7 +1257,7 @@
       </c>
       <c r="C30" s="22">
         <f>4*E1</f>
-        <v>780</v>
+        <v>1996.8000000000002</v>
       </c>
       <c r="D30" t="s">
         <v>45</v>
@@ -1273,7 +1272,7 @@
       </c>
       <c r="C31" s="22">
         <f>B31*E1</f>
-        <v>78</v>
+        <v>199.68000000000004</v>
       </c>
       <c r="D31" t="s">
         <v>45</v>
@@ -1288,7 +1287,7 @@
       </c>
       <c r="C32" s="22">
         <f>B32*E1</f>
-        <v>78</v>
+        <v>199.68000000000004</v>
       </c>
       <c r="D32" t="s">
         <v>45</v>
@@ -1303,7 +1302,7 @@
       </c>
       <c r="C33" s="22">
         <f>B33*E1</f>
-        <v>259.35000000000002</v>
+        <v>663.93600000000015</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>45</v>
@@ -1318,10 +1317,7 @@
       </c>
       <c r="C34" s="22">
         <f>B34*E1</f>
-        <v>39</v>
-      </c>
-      <c r="D34" t="s">
-        <v>45</v>
+        <v>99.840000000000018</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1333,7 +1329,7 @@
       </c>
       <c r="C35" s="22">
         <f>B35*E1</f>
-        <v>29.25</v>
+        <v>74.88000000000001</v>
       </c>
       <c r="D35" t="s">
         <v>45</v>
@@ -1357,7 +1353,7 @@
       </c>
       <c r="C38" s="24">
         <f>SUM(C29:C37)</f>
-        <v>3149.25</v>
+        <v>8062.0800000000008</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1400,7 +1396,7 @@
       </c>
       <c r="C44" s="22">
         <f>E$1*B44</f>
-        <v>82.875</v>
+        <v>212.16000000000003</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
@@ -1415,7 +1411,10 @@
       </c>
       <c r="C45" s="22">
         <f>E$1*B45</f>
-        <v>78</v>
+        <v>199.68000000000004</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1427,7 +1426,10 @@
       </c>
       <c r="C46" s="22">
         <f>E$1*B46</f>
-        <v>259.35000000000002</v>
+        <v>663.93600000000015</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1436,7 +1438,7 @@
       </c>
       <c r="C47" s="24">
         <f>SUM(C44:C46)</f>
-        <v>420.22500000000002</v>
+        <v>1075.7760000000003</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1448,15 +1450,15 @@
       </c>
       <c r="C48" s="19">
         <f>C47/12</f>
-        <v>35.018750000000004</v>
+        <v>89.648000000000025</v>
       </c>
       <c r="D48" s="1">
         <f>C48 * (3/7)</f>
-        <v>15.008035714285715</v>
+        <v>38.420571428571435</v>
       </c>
       <c r="E48" s="2">
         <f>C48 * (4/7)</f>
-        <v>20.010714285714286</v>
+        <v>51.227428571428582</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1478,7 +1480,7 @@
       </c>
       <c r="B53" s="14">
         <f>C3+C17</f>
-        <v>243.74999999999997</v>
+        <v>624</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>36</v>
@@ -1499,7 +1501,7 @@
       </c>
       <c r="B54" s="14">
         <f>C18+C4</f>
-        <v>126.75</v>
+        <v>324.48</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>29</v>
@@ -1518,7 +1520,7 @@
       </c>
       <c r="B55" s="14">
         <f>C5+C19</f>
-        <v>126.75</v>
+        <v>324.48</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>30</v>
@@ -1537,7 +1539,7 @@
       </c>
       <c r="B56" s="14">
         <f>C29+C16+C6</f>
-        <v>1948.44</v>
+        <v>4988.0064000000002</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>31</v>
@@ -1556,7 +1558,7 @@
       </c>
       <c r="B57" s="14">
         <f>C7</f>
-        <v>23.4</v>
+        <v>59.904000000000003</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>32</v>
@@ -1575,7 +1577,7 @@
       </c>
       <c r="B58" s="14">
         <f>C8</f>
-        <v>54.600000000000009</v>
+        <v>139.77600000000004</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>33</v>
@@ -1594,7 +1596,7 @@
       </c>
       <c r="B59" s="14">
         <f>C15</f>
-        <v>195</v>
+        <v>499.20000000000005</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>34</v>
@@ -1613,7 +1615,7 @@
       </c>
       <c r="B60" s="14">
         <f>C20</f>
-        <v>32.662500000000001</v>
+        <v>83.616000000000014</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>42</v>
@@ -1631,7 +1633,7 @@
       </c>
       <c r="B61" s="14">
         <f>C30+C44</f>
-        <v>862.875</v>
+        <v>2208.96</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>43</v>
@@ -1652,7 +1654,7 @@
       </c>
       <c r="B62" s="14">
         <f>C31+C45</f>
-        <v>156</v>
+        <v>399.36000000000007</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1661,7 +1663,7 @@
       </c>
       <c r="B63" s="14">
         <f>C32</f>
-        <v>78</v>
+        <v>199.68000000000004</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1670,7 +1672,7 @@
       </c>
       <c r="B64" s="14">
         <f>C33+C46</f>
-        <v>518.70000000000005</v>
+        <v>1327.8720000000003</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1679,7 +1681,7 @@
       </c>
       <c r="B65" s="14">
         <f>C34</f>
-        <v>39</v>
+        <v>99.840000000000018</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1688,7 +1690,7 @@
       </c>
       <c r="B66" s="14">
         <f>C35</f>
-        <v>29.25</v>
+        <v>74.88000000000001</v>
       </c>
     </row>
   </sheetData>
